--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itgb2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itgb2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H2">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J2">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.05619066666666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N2">
-        <v>0.168572</v>
+        <v>6.321202</v>
       </c>
       <c r="O2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P2">
-        <v>0.0001313909956330249</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q2">
-        <v>0.008577355424888888</v>
+        <v>1.479510338821556</v>
       </c>
       <c r="R2">
-        <v>0.077196198824</v>
+        <v>13.315593049394</v>
       </c>
       <c r="S2">
-        <v>5.3733983316665E-06</v>
+        <v>0.000729946825862229</v>
       </c>
       <c r="T2">
-        <v>5.3733983316665E-06</v>
+        <v>0.000729946825862229</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H3">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J3">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.7989746666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N3">
-        <v>419.396924</v>
+        <v>657.462113</v>
       </c>
       <c r="O3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P3">
-        <v>0.3268928375399716</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q3">
-        <v>21.33994068560089</v>
+        <v>153.8824409609068</v>
       </c>
       <c r="R3">
-        <v>192.059466170408</v>
+        <v>1384.941968648161</v>
       </c>
       <c r="S3">
-        <v>0.01336868953164026</v>
+        <v>0.07592106414397515</v>
       </c>
       <c r="T3">
-        <v>0.01336868953164026</v>
+        <v>0.07592106414397516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H4">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J4">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>188.11053</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N4">
-        <v>564.33159</v>
+        <v>0.13486</v>
       </c>
       <c r="O4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P4">
-        <v>0.4398600566954656</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q4">
-        <v>28.71457077642</v>
+        <v>0.03156468726888889</v>
       </c>
       <c r="R4">
-        <v>258.43113698778</v>
+        <v>0.28408218542</v>
       </c>
       <c r="S4">
-        <v>0.01798862458897505</v>
+        <v>1.557308703879107E-05</v>
       </c>
       <c r="T4">
-        <v>0.01798862458897505</v>
+        <v>1.557308703879107E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1526473333333333</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H5">
-        <v>0.457942</v>
+        <v>2.106497</v>
       </c>
       <c r="I5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J5">
-        <v>0.04089624487414953</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.694255</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N5">
-        <v>299.082765</v>
+        <v>656.961365</v>
       </c>
       <c r="O5">
-        <v>0.2331157147689297</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P5">
-        <v>0.2331157147689298</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q5">
-        <v>15.21806217440333</v>
+        <v>153.7652382764894</v>
       </c>
       <c r="R5">
-        <v>136.96255956963</v>
+        <v>1383.887144488405</v>
       </c>
       <c r="S5">
-        <v>0.009533557355202546</v>
+        <v>0.0758632397913984</v>
       </c>
       <c r="T5">
-        <v>0.009533557355202548</v>
+        <v>0.0758632397913984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.541923333333334</v>
+        <v>0.7021656666666667</v>
       </c>
       <c r="H6">
-        <v>7.625770000000001</v>
+        <v>2.106497</v>
       </c>
       <c r="I6">
-        <v>0.6810149697427694</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="J6">
-        <v>0.6810149697427693</v>
+        <v>0.197084787652417</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05619066666666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N6">
-        <v>0.168572</v>
+        <v>385.837593</v>
       </c>
       <c r="O6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P6">
-        <v>0.0001313909956330249</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q6">
-        <v>0.1428323667155556</v>
+        <v>90.30730357130236</v>
       </c>
       <c r="R6">
-        <v>1.28549130044</v>
+        <v>812.7657321417211</v>
       </c>
       <c r="S6">
-        <v>8.947923491549683E-05</v>
+        <v>0.0445549638041424</v>
       </c>
       <c r="T6">
-        <v>8.947923491549682E-05</v>
+        <v>0.0445549638041424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,43 +856,43 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H7">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I7">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J7">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>139.7989746666667</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N7">
-        <v>419.396924</v>
+        <v>6.321202</v>
       </c>
       <c r="O7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P7">
-        <v>0.3268928375399716</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q7">
-        <v>355.3582756812756</v>
+        <v>5.356003619504445</v>
       </c>
       <c r="R7">
-        <v>3198.22448113148</v>
+        <v>48.20403257554</v>
       </c>
       <c r="S7">
-        <v>0.2226189158664118</v>
+        <v>0.002642494438043543</v>
       </c>
       <c r="T7">
-        <v>0.2226189158664118</v>
+        <v>0.002642494438043543</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,13 +918,13 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J8">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>188.11053</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N8">
-        <v>564.33159</v>
+        <v>657.462113</v>
       </c>
       <c r="O8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P8">
-        <v>0.4398600566954656</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q8">
-        <v>478.1625454527</v>
+        <v>557.0727619391123</v>
       </c>
       <c r="R8">
-        <v>4303.462909074301</v>
+        <v>5013.65485745201</v>
       </c>
       <c r="S8">
-        <v>0.2995512832015153</v>
+        <v>0.2748432935424078</v>
       </c>
       <c r="T8">
-        <v>0.2995512832015153</v>
+        <v>0.2748432935424078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,48 +980,48 @@
         <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>7.625770000000001</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.6810149697427694</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J9">
-        <v>0.6810149697427693</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>99.694255</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N9">
-        <v>299.082765</v>
+        <v>0.13486</v>
       </c>
       <c r="O9">
-        <v>0.2331157147689297</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P9">
-        <v>0.2331157147689298</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q9">
-        <v>253.4151529837833</v>
+        <v>0.1142679269111111</v>
       </c>
       <c r="R9">
-        <v>2280.73637685405</v>
+        <v>1.0284113422</v>
       </c>
       <c r="S9">
-        <v>0.1587552914399268</v>
+        <v>5.637642965919334E-05</v>
       </c>
       <c r="T9">
-        <v>0.1587552914399267</v>
+        <v>5.637642965919334E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,60 +1030,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05304766666666666</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H10">
-        <v>0.159143</v>
+        <v>7.62577</v>
       </c>
       <c r="I10">
-        <v>0.0142121733713151</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J10">
-        <v>0.01421217337131509</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.05619066666666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N10">
-        <v>0.168572</v>
+        <v>656.961365</v>
       </c>
       <c r="O10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P10">
-        <v>0.0001313909956330249</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q10">
-        <v>0.002980783755111111</v>
+        <v>556.6484742640056</v>
       </c>
       <c r="R10">
-        <v>0.026827053796</v>
+        <v>5009.83626837605</v>
       </c>
       <c r="S10">
-        <v>1.867351609366255E-06</v>
+        <v>0.2746339624998527</v>
       </c>
       <c r="T10">
-        <v>1.867351609366255E-06</v>
+        <v>0.2746339624998527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,25 +1092,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.05304766666666666</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H11">
-        <v>0.159143</v>
+        <v>7.62577</v>
       </c>
       <c r="I11">
-        <v>0.0142121733713151</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="J11">
-        <v>0.01421217337131509</v>
+        <v>0.7134704018739033</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7989746666667</v>
+        <v>128.612531</v>
       </c>
       <c r="N11">
-        <v>419.396924</v>
+        <v>385.837593</v>
       </c>
       <c r="O11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P11">
-        <v>0.3268928375399716</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q11">
-        <v>7.416009408459111</v>
+        <v>326.9231935079567</v>
       </c>
       <c r="R11">
-        <v>66.74408467613199</v>
+        <v>2942.30874157161</v>
       </c>
       <c r="S11">
-        <v>0.004645857680959217</v>
+        <v>0.1612942749639401</v>
       </c>
       <c r="T11">
-        <v>0.004645857680959216</v>
+        <v>0.1612942749639401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,46 +1163,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H12">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I12">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J12">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>188.11053</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N12">
-        <v>564.33159</v>
+        <v>6.321202</v>
       </c>
       <c r="O12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P12">
-        <v>0.4398600566954656</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q12">
-        <v>9.978824691929999</v>
+        <v>0.2251289068742222</v>
       </c>
       <c r="R12">
-        <v>89.80942222736999</v>
+        <v>2.026160161868</v>
       </c>
       <c r="S12">
-        <v>0.006251367384872445</v>
+        <v>0.0001110719720374269</v>
       </c>
       <c r="T12">
-        <v>0.006251367384872444</v>
+        <v>0.0001110719720374269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05304766666666666</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H13">
-        <v>0.159143</v>
+        <v>0.320534</v>
       </c>
       <c r="I13">
-        <v>0.0142121733713151</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J13">
-        <v>0.01421217337131509</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>99.694255</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N13">
-        <v>299.082765</v>
+        <v>657.462113</v>
       </c>
       <c r="O13">
-        <v>0.2331157147689297</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P13">
-        <v>0.2331157147689298</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q13">
-        <v>5.288547607821666</v>
+        <v>23.41544010314911</v>
       </c>
       <c r="R13">
-        <v>47.59692847039499</v>
+        <v>210.738960928342</v>
       </c>
       <c r="S13">
-        <v>0.003313080953874069</v>
+        <v>0.01155248850310488</v>
       </c>
       <c r="T13">
-        <v>0.003313080953874069</v>
+        <v>0.01155248850310489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H14">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I14">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J14">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05619066666666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N14">
-        <v>0.168572</v>
+        <v>0.13486</v>
       </c>
       <c r="O14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P14">
-        <v>0.0001313909956330249</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q14">
-        <v>0.04731744865155555</v>
+        <v>0.004803023915555556</v>
       </c>
       <c r="R14">
-        <v>0.425857037864</v>
+        <v>0.04322721524</v>
       </c>
       <c r="S14">
-        <v>2.964264473700267E-05</v>
+        <v>2.369670538762627E-06</v>
       </c>
       <c r="T14">
-        <v>2.964264473700266E-05</v>
+        <v>2.369670538762627E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,25 +1340,25 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H15">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I15">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J15">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>139.7989746666667</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N15">
-        <v>419.396924</v>
+        <v>656.961365</v>
       </c>
       <c r="O15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P15">
-        <v>0.3268928375399716</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q15">
-        <v>117.7229457797876</v>
+        <v>23.39760601876777</v>
       </c>
       <c r="R15">
-        <v>1059.506512018088</v>
+        <v>210.57845416891</v>
       </c>
       <c r="S15">
-        <v>0.07374910437038006</v>
+        <v>0.01154368969112992</v>
       </c>
       <c r="T15">
-        <v>0.07374910437038006</v>
+        <v>0.01154368969112992</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1405,22 +1405,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.8420873333333333</v>
+        <v>0.1068446666666667</v>
       </c>
       <c r="H16">
-        <v>2.526262</v>
+        <v>0.320534</v>
       </c>
       <c r="I16">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="J16">
-        <v>0.2256063636186651</v>
+        <v>0.0299893022992104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>188.11053</v>
+        <v>128.612531</v>
       </c>
       <c r="N16">
-        <v>564.33159</v>
+        <v>385.837593</v>
       </c>
       <c r="O16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="P16">
-        <v>0.4398600566954656</v>
+        <v>0.2260700297311658</v>
       </c>
       <c r="Q16">
-        <v>158.40549457962</v>
+        <v>13.74156300385133</v>
       </c>
       <c r="R16">
-        <v>1425.64945121658</v>
+        <v>123.674067034662</v>
       </c>
       <c r="S16">
-        <v>0.09923522789216387</v>
+        <v>0.006779682462399414</v>
       </c>
       <c r="T16">
-        <v>0.09923522789216385</v>
+        <v>0.006779682462399414</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.8420873333333333</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H17">
-        <v>2.526262</v>
+        <v>0.267062</v>
       </c>
       <c r="I17">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J17">
-        <v>0.2256063636186651</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>99.694255</v>
+        <v>2.107067333333334</v>
       </c>
       <c r="N17">
-        <v>299.082765</v>
+        <v>6.321202</v>
       </c>
       <c r="O17">
-        <v>0.2331157147689297</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="P17">
-        <v>0.2331157147689298</v>
+        <v>0.003703719777447152</v>
       </c>
       <c r="Q17">
-        <v>83.95126934160332</v>
+        <v>0.1875725387248889</v>
       </c>
       <c r="R17">
-        <v>755.56142407443</v>
+        <v>1.688152848524</v>
       </c>
       <c r="S17">
-        <v>0.05259238871138418</v>
+        <v>9.254276612234368E-05</v>
       </c>
       <c r="T17">
-        <v>0.05259238871138418</v>
+        <v>9.254276612234368E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,60 +1526,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1428456666666667</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H18">
-        <v>0.428537</v>
+        <v>0.267062</v>
       </c>
       <c r="I18">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J18">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05619066666666667</v>
+        <v>219.1540376666667</v>
       </c>
       <c r="N18">
-        <v>0.168572</v>
+        <v>657.462113</v>
       </c>
       <c r="O18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260555</v>
       </c>
       <c r="P18">
-        <v>0.0001313909956330249</v>
+        <v>0.3852203158260556</v>
       </c>
       <c r="Q18">
-        <v>0.008026593240444444</v>
+        <v>19.50923853577845</v>
       </c>
       <c r="R18">
-        <v>0.07223933916399999</v>
+        <v>175.583146822006</v>
       </c>
       <c r="S18">
-        <v>5.028366039492702E-06</v>
+        <v>0.009625283697255821</v>
       </c>
       <c r="T18">
-        <v>5.028366039492701E-06</v>
+        <v>0.009625283697255823</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,60 +1588,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.08902066666666668</v>
+      </c>
+      <c r="H19">
+        <v>0.267062</v>
+      </c>
+      <c r="I19">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="J19">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.1428456666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.428537</v>
-      </c>
-      <c r="I19">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="J19">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>139.7989746666667</v>
+        <v>0.04495333333333334</v>
       </c>
       <c r="N19">
-        <v>419.396924</v>
+        <v>0.13486</v>
       </c>
       <c r="O19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="P19">
-        <v>0.3268928375399716</v>
+        <v>7.901719470229284E-05</v>
       </c>
       <c r="Q19">
-        <v>19.96967773557645</v>
+        <v>0.004001775702222223</v>
       </c>
       <c r="R19">
-        <v>179.727099620188</v>
+        <v>0.03601598132000001</v>
       </c>
       <c r="S19">
-        <v>0.0125102700905803</v>
+        <v>1.974358269085416E-06</v>
       </c>
       <c r="T19">
-        <v>0.01251027009058029</v>
+        <v>1.974358269085416E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.1428456666666667</v>
+        <v>0.08902066666666668</v>
       </c>
       <c r="H20">
-        <v>0.428537</v>
+        <v>0.267062</v>
       </c>
       <c r="I20">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="J20">
-        <v>0.03827024839310091</v>
+        <v>0.02498643841412059</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,90 +1677,400 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>188.11053</v>
+        <v>218.9871216666667</v>
       </c>
       <c r="N20">
-        <v>564.33159</v>
+        <v>656.961365</v>
       </c>
       <c r="O20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="P20">
-        <v>0.4398600566954656</v>
+        <v>0.3849269174706293</v>
       </c>
       <c r="Q20">
-        <v>26.87077406487</v>
+        <v>19.49437956218111</v>
       </c>
       <c r="R20">
-        <v>241.83696658383</v>
+        <v>175.44941605963</v>
       </c>
       <c r="S20">
-        <v>0.01683355362793892</v>
+        <v>0.009617952717317158</v>
       </c>
       <c r="T20">
-        <v>0.01683355362793891</v>
+        <v>0.009617952717317158</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.08902066666666668</v>
+      </c>
+      <c r="H21">
+        <v>0.267062</v>
+      </c>
+      <c r="I21">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="J21">
+        <v>0.02498643841412059</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>128.612531</v>
+      </c>
+      <c r="N21">
+        <v>385.837593</v>
+      </c>
+      <c r="O21">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P21">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q21">
+        <v>11.44917325130734</v>
+      </c>
+      <c r="R21">
+        <v>103.042559261766</v>
+      </c>
+      <c r="S21">
+        <v>0.005648684875156186</v>
+      </c>
+      <c r="T21">
+        <v>0.005648684875156186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.122805</v>
+      </c>
+      <c r="H22">
+        <v>0.368415</v>
+      </c>
+      <c r="I22">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J22">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>2.107067333333334</v>
+      </c>
+      <c r="N22">
+        <v>6.321202</v>
+      </c>
+      <c r="O22">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="P22">
+        <v>0.003703719777447152</v>
+      </c>
+      <c r="Q22">
+        <v>0.25875840387</v>
+      </c>
+      <c r="R22">
+        <v>2.32882563483</v>
+      </c>
+      <c r="S22">
+        <v>0.0001276637753816089</v>
+      </c>
+      <c r="T22">
+        <v>0.0001276637753816089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.122805</v>
+      </c>
+      <c r="H23">
+        <v>0.368415</v>
+      </c>
+      <c r="I23">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J23">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>219.1540376666667</v>
+      </c>
+      <c r="N23">
+        <v>657.462113</v>
+      </c>
+      <c r="O23">
+        <v>0.3852203158260555</v>
+      </c>
+      <c r="P23">
+        <v>0.3852203158260556</v>
+      </c>
+      <c r="Q23">
+        <v>26.913211595655</v>
+      </c>
+      <c r="R23">
+        <v>242.218904360895</v>
+      </c>
+      <c r="S23">
+        <v>0.01327818593931186</v>
+      </c>
+      <c r="T23">
+        <v>0.01327818593931186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.122805</v>
+      </c>
+      <c r="H24">
+        <v>0.368415</v>
+      </c>
+      <c r="I24">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J24">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04495333333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.13486</v>
+      </c>
+      <c r="O24">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="P24">
+        <v>7.901719470229284E-05</v>
+      </c>
+      <c r="Q24">
+        <v>0.0055204941</v>
+      </c>
+      <c r="R24">
+        <v>0.04968444690000001</v>
+      </c>
+      <c r="S24">
+        <v>2.723649196460385E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.723649196460385E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.1428456666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.428537</v>
-      </c>
-      <c r="I21">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="J21">
-        <v>0.03827024839310091</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>99.694255</v>
-      </c>
-      <c r="N21">
-        <v>299.082765</v>
-      </c>
-      <c r="O21">
-        <v>0.2331157147689297</v>
-      </c>
-      <c r="P21">
-        <v>0.2331157147689298</v>
-      </c>
-      <c r="Q21">
-        <v>14.24089231831167</v>
-      </c>
-      <c r="R21">
-        <v>128.168030864805</v>
-      </c>
-      <c r="S21">
-        <v>0.008921396308542204</v>
-      </c>
-      <c r="T21">
-        <v>0.008921396308542204</v>
+      <c r="G25">
+        <v>0.122805</v>
+      </c>
+      <c r="H25">
+        <v>0.368415</v>
+      </c>
+      <c r="I25">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J25">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>218.9871216666667</v>
+      </c>
+      <c r="N25">
+        <v>656.961365</v>
+      </c>
+      <c r="O25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="P25">
+        <v>0.3849269174706293</v>
+      </c>
+      <c r="Q25">
+        <v>26.892713476275</v>
+      </c>
+      <c r="R25">
+        <v>242.034421286475</v>
+      </c>
+      <c r="S25">
+        <v>0.0132680727709311</v>
+      </c>
+      <c r="T25">
+        <v>0.0132680727709311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.122805</v>
+      </c>
+      <c r="H26">
+        <v>0.368415</v>
+      </c>
+      <c r="I26">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="J26">
+        <v>0.03446906976034867</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>128.612531</v>
+      </c>
+      <c r="N26">
+        <v>385.837593</v>
+      </c>
+      <c r="O26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="P26">
+        <v>0.2260700297311658</v>
+      </c>
+      <c r="Q26">
+        <v>15.794261869455</v>
+      </c>
+      <c r="R26">
+        <v>142.148356825095</v>
+      </c>
+      <c r="S26">
+        <v>0.007792423625527652</v>
+      </c>
+      <c r="T26">
+        <v>0.007792423625527652</v>
       </c>
     </row>
   </sheetData>
